--- a/総合テスト/総合テスト  3.注文機能.xlsx
+++ b/総合テスト/総合テスト  3.注文機能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikumu.hiramoto\Downloads\Jobs\simplezakka\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B27164EF-AA2C-483E-896C-9984A0605860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A24EB56-8C1B-4711-A99C-B629483D170E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D36DD16F-ECDB-4160-B1BC-DF8C9A02AA2B}"/>
   </bookViews>
@@ -46,9 +46,385 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+  <si>
+    <t>アロマディフューザー x1, モダンデスクライト x1 がカートに入っている (バッジ=2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートモーダルが閉じて、顧客情報入力モーダル (checkoutModal) が表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報入力モーダルが表示されている</t>
+  </si>
+  <si>
+    <t>顧客情報入力モーダルが表示されている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各入力欄に情報が正しく入力されて、エラー無く表示されている</t>
+    <rPh sb="20" eb="21">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お名前を未入力、その他の項目を正しく入力して、注文確定を押下すると、"お名前を入力してください"と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>チュウモンカクテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所を未入力、その他の項目を正しく入力して、</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文確定を押下すると、"住所を入力してください"と表示されている</t>
+    <rPh sb="0" eb="4">
+      <t>チュウモンカクテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスを不正な形式で入力、その他の項目は正しく入力して、</t>
+    <rPh sb="8" eb="10">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文確定を押下すると、"有効なメールアドレスを入力してください"と表示されている</t>
+  </si>
+  <si>
+    <t>メールアドレスを未入力、その他の項目を正しく入力して、</t>
+    <rPh sb="8" eb="11">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号を未入力で、その他の項目は正しく入力して、</t>
+    <rPh sb="0" eb="4">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文確定を押下すると、"電話番号を入力してください"と表示されている</t>
+    <rPh sb="12" eb="16">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートにはアロマディフューザー x1, モダンデスクライト x1。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報入力モーダルが表示されて、正しく入力して注文確定を押下</t>
+    <rPh sb="0" eb="4">
+      <t>コキャクジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>チュウモンカクテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了モーダルに「ご注文ありがとうございます」等のメッセージと、</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文番号が表示されている</t>
+  </si>
+  <si>
+    <t>DBのordersテーブルに注文情報が、order_detailsテーブルに対応する明細が保存されていること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのproductsテーブルでアロマディフューザーとモダンデスクライトの在庫がそれぞれ1減っている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートに商品在庫以上の数量の商品が入っている</t>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報入力モーダルが表示され、正しく入力して、注文確定を押下すると、</t>
+    <rPh sb="0" eb="6">
+      <t>コキャクジョウホウニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>チュウモンカクテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”注文の確定に失敗しました”と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートにはアロマディフューザー x1, モダンデスクライト x1。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>OrderService.placeOrder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>内で意図的に例外が発生するように一時的にコード変更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報入力モーダルが視覚的に分かりやすく表示されている</t>
+    <rPh sb="0" eb="6">
+      <t>コキャクジョウホウニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シカクテキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文完了モーダルが視覚的に分かりやすく表示されている</t>
+    <rPh sb="0" eb="4">
+      <t>チュウモンカンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シカクテキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +439,48 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242424"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,8 +505,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -113,15 +546,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -147,28 +580,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619125" y="200025"/>
-          <a:ext cx="4572000" cy="3781425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+          <a:off x="631825" y="695325"/>
+          <a:ext cx="4394200" cy="3838575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -194,8 +627,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="228600"/>
-          <a:ext cx="4562475" cy="3762375"/>
+          <a:off x="5969000" y="679450"/>
+          <a:ext cx="4410075" cy="3819525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -211,154 +644,60 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9287AB-FEA8-9CAD-C696-09F11180371B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11258550" y="695325"/>
+          <a:ext cx="4419600" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9287AB-FEA8-9CAD-C696-09F11180371B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10458450" y="247650"/>
-          <a:ext cx="4572000" cy="3962400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F56583-F703-C8D0-34DA-62214CB2AE4F}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9B9287AB-FEA8-9CAD-C696-09F11180371B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15325725" y="333375"/>
-          <a:ext cx="4572000" cy="2676525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016DEE2A-D57A-3D00-BCB1-6FF1FDB67D34}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D0F56583-F703-C8D0-34DA-62214CB2AE4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20459700" y="304800"/>
-          <a:ext cx="4572000" cy="2695575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -377,15 +716,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5381625" y="200025"/>
-          <a:ext cx="4343400" cy="2428875"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5940425" y="673100"/>
+          <a:ext cx="4165600" cy="2771775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -397,15 +736,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -424,15 +763,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="200025"/>
-          <a:ext cx="4562475" cy="2466975"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="615950" y="647700"/>
+          <a:ext cx="4410075" cy="2809875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -450,14 +789,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -483,8 +822,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="171450"/>
-          <a:ext cx="4419600" cy="2409825"/>
+          <a:off x="660400" y="742950"/>
+          <a:ext cx="4267200" cy="2752725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -501,14 +840,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -535,8 +874,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="200025"/>
-          <a:ext cx="4133850" cy="2457450"/>
+          <a:off x="666750" y="685800"/>
+          <a:ext cx="3981450" cy="2800350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -552,26 +891,218 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>654049</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>450924</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CF3F35-804B-4DA5-B56F-385BBFEF3139}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AF9354ED-D22F-E187-999D-48CD499BC5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6597649" y="692150"/>
+          <a:ext cx="4419675" cy="3041650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D30A09-B79B-BD02-78D8-B45C80D943C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="692151"/>
+          <a:ext cx="4610100" cy="3413943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3ECA98-5477-473C-B224-9659A85FC72C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4C8A573B-47DF-DDFC-9B7F-57EDE9CD7B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="679450"/>
+          <a:ext cx="3921125" cy="2752725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>183511</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CF3F35-804B-4DA5-B56F-385BBFEF3139}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52862442-FDA2-49CB-B05A-C2C8779C1E4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="685800"/>
+          <a:ext cx="4260850" cy="3155311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A58DCA-362A-4178-BE81-F77F6DCC0ED6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AF9354ED-D22F-E187-999D-48CD499BC5E7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{65A4C5F0-6A14-3A88-87AD-CCAC9D4F8B33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -587,8 +1118,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="200025"/>
-          <a:ext cx="4057650" cy="2390775"/>
+          <a:off x="6610350" y="692150"/>
+          <a:ext cx="3949700" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>183511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4039DEE-A1A0-48A4-95A9-429F6764F625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="685800"/>
+          <a:ext cx="4260850" cy="3155311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,30 +1175,126 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47858C21-FDE6-4BCB-9835-A0654EFA78AF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8268D7A3-597E-46E2-9CF8-80F9D92D7B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381750" y="704850"/>
+          <a:ext cx="3971925" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>183511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7076CFA9-BDAE-4CF8-9BA6-A011C0D41A21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="685800"/>
+          <a:ext cx="4260850" cy="3155311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3ECA98-5477-473C-B224-9659A85FC72C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87D482E-2A48-4EAC-8EA8-78DA570174BA}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4C8A573B-47DF-DDFC-9B7F-57EDE9CD7B8E}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5CF759A2-A9AE-69AB-9354-BAC8F89B411D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -639,43 +1310,87 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="200025"/>
-          <a:ext cx="4048125" cy="2409825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5956300" y="685800"/>
+          <a:ext cx="4105275" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A58DCA-362A-4178-BE81-F77F6DCC0ED6}"/>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>183511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C1FC57-6728-42F7-816D-6E4EA48E04AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="685800"/>
+          <a:ext cx="4260850" cy="3155311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17648C5F-5B85-4750-89CA-29C2FEF45C26}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{65A4C5F0-6A14-3A88-87AD-CCAC9D4F8B33}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B07608E1-CAC1-7747-1755-6D3DEB3098C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -691,164 +1406,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="200025"/>
-          <a:ext cx="4076700" cy="2428875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5956300" y="692150"/>
+          <a:ext cx="3971925" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47858C21-FDE6-4BCB-9835-A0654EFA78AF}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8268D7A3-597E-46E2-9CF8-80F9D92D7B9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="200025"/>
-          <a:ext cx="4124325" cy="2419350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87D482E-2A48-4EAC-8EA8-78DA570174BA}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5CF759A2-A9AE-69AB-9354-BAC8F89B411D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="200025"/>
-          <a:ext cx="4257675" cy="2419350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17648C5F-5B85-4750-89CA-29C2FEF45C26}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B07608E1-CAC1-7747-1755-6D3DEB3098C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="200025"/>
-          <a:ext cx="4124325" cy="2419350"/>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>183511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA51402-E1D5-4337-99A3-2FC3EC7451A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="685800"/>
+          <a:ext cx="4260850" cy="3155311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -864,16 +1467,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -899,28 +1502,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4124325" y="219075"/>
-          <a:ext cx="4171950" cy="2457450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+          <a:off x="10575925" y="698500"/>
+          <a:ext cx="4019550" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -946,8 +1549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7277100" y="333375"/>
-          <a:ext cx="1028700" cy="676275"/>
+          <a:off x="13525500" y="939800"/>
+          <a:ext cx="977900" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -959,15 +1562,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -993,8 +1596,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676275" y="209550"/>
-          <a:ext cx="3028950" cy="2505075"/>
+          <a:off x="631825" y="676275"/>
+          <a:ext cx="2921000" cy="2847975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>641351</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>262395</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7987F657-4339-3C10-75F4-55B036B3A4E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4603751" y="685801"/>
+          <a:ext cx="4904244" cy="3162299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955DF977-27FC-D900-9AAD-EE90D3F46889}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15817850" y="673100"/>
+          <a:ext cx="4832350" cy="1149350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>644984</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>178654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85C3D71-B3E2-E5B2-F47E-71EA2F512E55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21793200" y="692150"/>
+          <a:ext cx="3286584" cy="6115904"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1010,16 +1745,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1042,28 +1777,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="200025"/>
-          <a:ext cx="4572000" cy="2952750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+          <a:off x="609600" y="711200"/>
+          <a:ext cx="4419600" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1089,8 +1824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5734050" y="190500"/>
-          <a:ext cx="3771900" cy="3000375"/>
+          <a:off x="5969000" y="711200"/>
+          <a:ext cx="3644900" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1419,14 +2154,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6175B4-9422-423F-A190-B1AB4CCC667D}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1435,14 +2182,31 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF4DC3E-94DF-41EB-ACAD-771A1A97E782}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1451,14 +2215,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C86E8FE-7B15-458F-AE38-A5DCEC1F9EE3}">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1467,14 +2237,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C9D3FC-7B12-4EC9-836A-F767963B2F0F}">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1483,14 +2259,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90A579D-6695-45DC-8851-604EC1D854CF}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K3" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1499,14 +2287,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3232BC9F-9807-42B0-87A3-C5F1154E0622}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1515,14 +2312,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480565AD-65BF-4E38-89BE-8293CD1D8B79}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1531,78 +2342,157 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EE2888-915D-4C05-AA00-1BD770542D1C}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:K3"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D133043-6656-43D3-BE84-983852C27E35}">
+  <dimension ref="B2:J3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8DFE67-74DF-423F-B2E5-1E590AC407F6}">
+  <dimension ref="B2:J3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651E7D99-B4E4-4762-AE8C-0DE4CE73B7D2}">
+  <dimension ref="B2:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D133043-6656-43D3-BE84-983852C27E35}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6198D01-97BC-4960-9AB6-45A777851A09}">
+  <dimension ref="B2:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8DFE67-74DF-423F-B2E5-1E590AC407F6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651E7D99-B4E4-4762-AE8C-0DE4CE73B7D2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6198D01-97BC-4960-9AB6-45A777851A09}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
